--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
@@ -22,10 +22,16 @@
     <t>6p_total</t>
   </si>
   <si>
+    <t>assignee</t>
+  </si>
+  <si>
     <t>attorney</t>
   </si>
   <si>
-    <t>esquire</t>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>esq</t>
   </si>
   <si>
     <t>executor</t>
@@ -38,12 +44,6 @@
   </si>
   <si>
     <t>merchant</t>
-  </si>
-  <si>
-    <t>physician</t>
-  </si>
-  <si>
-    <t>trust</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1325.68</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1325.68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1324.81</v>
+        <v>384.34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6063.15</v>
+        <v>1324.81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>235.01</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>384.34</v>
+        <v>6063.15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>16.67</v>
+        <v>235.01</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>assignee</t>
@@ -401,105 +407,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>16.67</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1325.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1325.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>384.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>384.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1324.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1324.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>6063.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3031.575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
+        <v>235.01</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>235.01</v>
       </c>
     </row>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNJ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>occupation</t>
   </si>
@@ -25,31 +25,34 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
     <t>assignee</t>
   </si>
   <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>doctor</t>
+    <t>farmer</t>
   </si>
   <si>
     <t>esq</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
-    <t>merchant</t>
   </si>
 </sst>
 </file>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,30 +429,36 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>16.67</v>
+        <v>6063.15</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>16.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="F2">
+        <v>3031.575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1325.68</v>
@@ -458,109 +467,130 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F3">
         <v>1325.68</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>384.34</v>
+        <v>1324.81</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>384.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F4">
+        <v>1324.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>384.34</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F5">
+        <v>384.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1324.81</v>
+        <v>235.01</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1324.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F6">
+        <v>235.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>3.34</v>
+        <v>16.67</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F7">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>6063.15</v>
+        <v>3.34</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>3031.575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F8">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>235.01</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>235.01</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
